--- a/target/test-classes/TestData/TOOLS.xlsx
+++ b/target/test-classes/TestData/TOOLS.xlsx
@@ -4,21 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="18270" windowHeight="6420"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="8610" windowHeight="6195" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="SURYA" sheetId="1" r:id="rId1"/>
-    <sheet name="JAI" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="surya" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:N20"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
   <si>
     <t>FIRSTNAME</t>
   </si>
@@ -71,88 +70,10 @@
     <t>CHENNAI</t>
   </si>
   <si>
-    <t>LOCATION</t>
-  </si>
-  <si>
-    <t>HOTELS</t>
-  </si>
-  <si>
-    <t>ROOMTYPE</t>
-  </si>
-  <si>
-    <t>NOOFROOMS</t>
-  </si>
-  <si>
-    <t>CHECKIN</t>
-  </si>
-  <si>
-    <t>CHECKOUT</t>
-  </si>
-  <si>
-    <t>ADULTS</t>
-  </si>
-  <si>
-    <t>CHILDREN</t>
-  </si>
-  <si>
-    <t>LONDON</t>
-  </si>
-  <si>
-    <t>NEYORK</t>
-  </si>
-  <si>
-    <t>PARIS</t>
-  </si>
-  <si>
-    <t>CREEK</t>
-  </si>
-  <si>
-    <t>SUNSHINE</t>
-  </si>
-  <si>
-    <t>HERVEY</t>
-  </si>
-  <si>
-    <t>STANDARD</t>
-  </si>
-  <si>
-    <t>DOBLE</t>
-  </si>
-  <si>
-    <t>DELUX</t>
-  </si>
-  <si>
-    <t>1-ONE</t>
-  </si>
-  <si>
-    <t>2-TWO</t>
-  </si>
-  <si>
-    <t>3-THREE</t>
-  </si>
-  <si>
-    <t>USERNAME</t>
-  </si>
-  <si>
-    <t>EMAIL ID</t>
-  </si>
-  <si>
-    <t>PASSWORD</t>
-  </si>
-  <si>
-    <t>MOB NO</t>
-  </si>
-  <si>
-    <t>JAYASURYA</t>
-  </si>
-  <si>
-    <t>priyamoorthy1410@GMAIL.COM</t>
-  </si>
-  <si>
-    <t>jai@12345</t>
-  </si>
-  <si>
-    <t>jaisurya</t>
+    <t>Surya@12345</t>
+  </si>
+  <si>
+    <t>I phone</t>
   </si>
 </sst>
 </file>
@@ -199,10 +120,9 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -500,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" activeCellId="1" sqref="D3 D4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -540,227 +460,6 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2">
-        <v>123456789</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>123456789</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <v>123456789</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="5" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="2">
-        <v>44791</v>
-      </c>
-      <c r="F2" s="2">
-        <v>44793</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="2">
-        <v>44791</v>
-      </c>
-      <c r="F3" s="2">
-        <v>44793</v>
-      </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="2">
-        <v>44791</v>
-      </c>
-      <c r="F4" s="2">
-        <v>44793</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D2">
@@ -823,54 +522,116 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A251" workbookViewId="0">
+      <selection activeCell="A251" sqref="A251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>37</v>
-      </c>
+    <row r="1" spans="2:7">
       <c r="B1" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
         <v>9843532637</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>9047512172</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="E3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
